--- a/sensor_data/ExperimentTable.xlsx
+++ b/sensor_data/ExperimentTable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro\Desktop\Handover-Dataset\sensor_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro\OneDrive\PHD\Matlab\Handover DataSet\excel_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="13">
   <si>
     <t>Experiment_number</t>
   </si>
@@ -47,25 +47,22 @@
     <t>object</t>
   </si>
   <si>
+    <t>control_type</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
     <t>quick</t>
   </si>
   <si>
+    <t>slow</t>
+  </si>
+  <si>
     <t>holding</t>
   </si>
   <si>
     <t>wrongpos</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>deceptiveobject</t>
-  </si>
-  <si>
-    <t>strategy</t>
   </si>
 </sst>
 </file>
@@ -432,20 +429,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -462,10 +459,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -484,7 +481,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -503,7 +500,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -522,7 +519,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -541,7 +538,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -560,7 +557,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -578,9 +575,8 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -599,7 +595,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -618,7 +614,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -637,7 +633,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -656,7 +652,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -675,7 +671,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -694,7 +690,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -713,7 +709,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -732,7 +728,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1088,10 +1084,10 @@
         <v>3</v>
       </c>
       <c r="E34" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1109,10 +1105,10 @@
         <v>2</v>
       </c>
       <c r="E35" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1130,10 +1126,10 @@
         <v>3</v>
       </c>
       <c r="E36" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1151,10 +1147,10 @@
         <v>2</v>
       </c>
       <c r="E37" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -1172,10 +1168,10 @@
         <v>3</v>
       </c>
       <c r="E38" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -1193,10 +1189,10 @@
         <v>2</v>
       </c>
       <c r="E39" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -1214,10 +1210,10 @@
         <v>3</v>
       </c>
       <c r="E40" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -1235,10 +1231,10 @@
         <v>2</v>
       </c>
       <c r="E41" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -1256,10 +1252,10 @@
         <v>3</v>
       </c>
       <c r="E42" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -1277,10 +1273,10 @@
         <v>2</v>
       </c>
       <c r="E43" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G43" s="1"/>
     </row>
@@ -1298,10 +1294,10 @@
         <v>3</v>
       </c>
       <c r="E44" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -1319,10 +1315,10 @@
         <v>2</v>
       </c>
       <c r="E45" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G45" s="1"/>
     </row>
@@ -1340,10 +1336,10 @@
         <v>3</v>
       </c>
       <c r="E46" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -1361,10 +1357,10 @@
         <v>2</v>
       </c>
       <c r="E47" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G47" s="1"/>
     </row>
@@ -1382,10 +1378,10 @@
         <v>3</v>
       </c>
       <c r="E48" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -1403,10 +1399,10 @@
         <v>2</v>
       </c>
       <c r="E49" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G49" s="1"/>
     </row>
@@ -1424,10 +1420,10 @@
         <v>3</v>
       </c>
       <c r="E50" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G50" s="1"/>
     </row>
@@ -1445,10 +1441,10 @@
         <v>2</v>
       </c>
       <c r="E51" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G51" s="1"/>
     </row>
@@ -1466,10 +1462,10 @@
         <v>3</v>
       </c>
       <c r="E52" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G52" s="1"/>
     </row>
@@ -1487,10 +1483,10 @@
         <v>2</v>
       </c>
       <c r="E53" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -1508,10 +1504,10 @@
         <v>3</v>
       </c>
       <c r="E54" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -1529,10 +1525,10 @@
         <v>2</v>
       </c>
       <c r="E55" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -1550,10 +1546,10 @@
         <v>3</v>
       </c>
       <c r="E56" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G56" s="1"/>
     </row>
@@ -1571,10 +1567,10 @@
         <v>2</v>
       </c>
       <c r="E57" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G57" s="1"/>
     </row>
@@ -1592,10 +1588,10 @@
         <v>3</v>
       </c>
       <c r="E58" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G58" s="1"/>
     </row>
@@ -1613,10 +1609,10 @@
         <v>2</v>
       </c>
       <c r="E59" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G59" s="1"/>
     </row>
@@ -1634,10 +1630,10 @@
         <v>3</v>
       </c>
       <c r="E60" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G60" s="1"/>
     </row>
@@ -1655,10 +1651,10 @@
         <v>2</v>
       </c>
       <c r="E61" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G61" s="1"/>
     </row>
@@ -1676,10 +1672,10 @@
         <v>3</v>
       </c>
       <c r="E62" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G62" s="1"/>
     </row>
@@ -1697,10 +1693,10 @@
         <v>2</v>
       </c>
       <c r="E63" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G63" s="1"/>
     </row>
@@ -1718,14 +1714,14 @@
         <v>3</v>
       </c>
       <c r="E64" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1739,14 +1735,14 @@
         <v>2</v>
       </c>
       <c r="E65" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1760,14 +1756,14 @@
         <v>3</v>
       </c>
       <c r="E66" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -1781,14 +1777,14 @@
         <v>2</v>
       </c>
       <c r="E67" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -1802,14 +1798,15 @@
         <v>3</v>
       </c>
       <c r="E68" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -1823,14 +1820,14 @@
         <v>2</v>
       </c>
       <c r="E69" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -1844,14 +1841,14 @@
         <v>3</v>
       </c>
       <c r="E70" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -1865,14 +1862,14 @@
         <v>2</v>
       </c>
       <c r="E71" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -1886,14 +1883,14 @@
         <v>3</v>
       </c>
       <c r="E72" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -1907,14 +1904,14 @@
         <v>2</v>
       </c>
       <c r="E73" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -1931,11 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -1952,11 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -1973,11 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -1994,7 +1991,7 @@
         <v>10</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G77" s="1"/>
     </row>
